--- a/data/pca/factorExposure/factorExposure_2016-05-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-05-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01097301719324999</v>
+        <v>0.01330962008766096</v>
       </c>
       <c r="C2">
-        <v>-0.05290843389596541</v>
+        <v>0.03812356495847855</v>
       </c>
       <c r="D2">
-        <v>-0.04195054626199132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.05599904169622433</v>
+      </c>
+      <c r="E2">
+        <v>0.08604019958204343</v>
+      </c>
+      <c r="F2">
+        <v>0.08511625435726235</v>
+      </c>
+      <c r="G2">
+        <v>-0.003446938489515659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03908590189262064</v>
+        <v>0.02475389879370085</v>
       </c>
       <c r="C3">
-        <v>-0.120314378463611</v>
+        <v>0.07025585462565354</v>
       </c>
       <c r="D3">
-        <v>-0.09571324921111851</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07481797955869805</v>
+      </c>
+      <c r="E3">
+        <v>0.06769826043383186</v>
+      </c>
+      <c r="F3">
+        <v>-0.02331068561503734</v>
+      </c>
+      <c r="G3">
+        <v>-0.04400686533564832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05868218712990684</v>
+        <v>0.05680714517570568</v>
       </c>
       <c r="C4">
-        <v>-0.06277942460720391</v>
+        <v>0.06544244916948325</v>
       </c>
       <c r="D4">
-        <v>-0.029103544738774</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05115399604111806</v>
+      </c>
+      <c r="E4">
+        <v>0.08270050490883012</v>
+      </c>
+      <c r="F4">
+        <v>0.06113673129467331</v>
+      </c>
+      <c r="G4">
+        <v>-0.07675996618101592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.03918767878842872</v>
+        <v>0.03478750446619566</v>
       </c>
       <c r="C6">
-        <v>-0.03815102777071614</v>
+        <v>0.02935648493932551</v>
       </c>
       <c r="D6">
-        <v>-0.03381062884311253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.05912092081683663</v>
+      </c>
+      <c r="E6">
+        <v>0.08640829387322427</v>
+      </c>
+      <c r="F6">
+        <v>0.0469965070463902</v>
+      </c>
+      <c r="G6">
+        <v>-0.060723508027682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02112073823117154</v>
+        <v>0.01707750418239627</v>
       </c>
       <c r="C7">
-        <v>-0.04802455657341563</v>
+        <v>0.0401279208257953</v>
       </c>
       <c r="D7">
-        <v>0.009248379639748613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03275734235608459</v>
+      </c>
+      <c r="E7">
+        <v>0.06009808932576937</v>
+      </c>
+      <c r="F7">
+        <v>0.09305189390653106</v>
+      </c>
+      <c r="G7">
+        <v>-0.06861251316233132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.005166357176862841</v>
+        <v>0.002430538626751475</v>
       </c>
       <c r="C8">
-        <v>-0.03631617860054585</v>
+        <v>0.03214417376426602</v>
       </c>
       <c r="D8">
-        <v>-0.0258412939251061</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03058096198218793</v>
+      </c>
+      <c r="E8">
+        <v>0.05758324132009528</v>
+      </c>
+      <c r="F8">
+        <v>0.03195633316471987</v>
+      </c>
+      <c r="G8">
+        <v>-0.03041085514025868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03290463917122902</v>
+        <v>0.03641450789494533</v>
       </c>
       <c r="C9">
-        <v>-0.05013051601089768</v>
+        <v>0.05259025291365147</v>
       </c>
       <c r="D9">
-        <v>-0.01253198871872312</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03615803490119675</v>
+      </c>
+      <c r="E9">
+        <v>0.06974901531297123</v>
+      </c>
+      <c r="F9">
+        <v>0.07281845506860667</v>
+      </c>
+      <c r="G9">
+        <v>-0.06690097230601511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08255013781734401</v>
+        <v>0.1056064833828725</v>
       </c>
       <c r="C10">
-        <v>0.1864480757627315</v>
+        <v>-0.1943379032949834</v>
       </c>
       <c r="D10">
-        <v>0.005160644492145236</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01216148178787561</v>
+      </c>
+      <c r="E10">
+        <v>0.04199856485642635</v>
+      </c>
+      <c r="F10">
+        <v>0.02548024937801672</v>
+      </c>
+      <c r="G10">
+        <v>-0.02607668702371517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04021100556704404</v>
+        <v>0.03552266011451274</v>
       </c>
       <c r="C11">
-        <v>-0.05408332030679353</v>
+        <v>0.04952485711081434</v>
       </c>
       <c r="D11">
-        <v>-0.009083244995841889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03031869166443726</v>
+      </c>
+      <c r="E11">
+        <v>0.0235168605858766</v>
+      </c>
+      <c r="F11">
+        <v>0.0563117505165201</v>
+      </c>
+      <c r="G11">
+        <v>-0.05261181315379945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04212781469208413</v>
+        <v>0.03758562352140717</v>
       </c>
       <c r="C12">
-        <v>-0.04966738203337966</v>
+        <v>0.04680170787856507</v>
       </c>
       <c r="D12">
-        <v>-0.0005002195822574457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0238863322966689</v>
+      </c>
+      <c r="E12">
+        <v>0.03182006066820302</v>
+      </c>
+      <c r="F12">
+        <v>0.05825007743681532</v>
+      </c>
+      <c r="G12">
+        <v>-0.04969225427280997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01260362740560718</v>
+        <v>0.01005042502948041</v>
       </c>
       <c r="C13">
-        <v>-0.05582518948394525</v>
+        <v>0.04373709526575142</v>
       </c>
       <c r="D13">
-        <v>-0.00852193466420291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04307087570407395</v>
+      </c>
+      <c r="E13">
+        <v>0.0950986919630578</v>
+      </c>
+      <c r="F13">
+        <v>0.08290420898726188</v>
+      </c>
+      <c r="G13">
+        <v>-0.07571177895897749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006496550714162624</v>
+        <v>0.003572705420437387</v>
       </c>
       <c r="C14">
-        <v>-0.04291458255482355</v>
+        <v>0.0343509843802848</v>
       </c>
       <c r="D14">
-        <v>0.01325558227900632</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02224045922205948</v>
+      </c>
+      <c r="E14">
+        <v>0.04805510503847302</v>
+      </c>
+      <c r="F14">
+        <v>0.09288887536763039</v>
+      </c>
+      <c r="G14">
+        <v>-0.05434336983916147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0002464624310784058</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005059218799691303</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.007073886597035021</v>
+      </c>
+      <c r="E15">
+        <v>0.003966032007689956</v>
+      </c>
+      <c r="F15">
+        <v>0.006248280696228741</v>
+      </c>
+      <c r="G15">
+        <v>-0.004438664038280137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03719733771416352</v>
+        <v>0.03351401380643658</v>
       </c>
       <c r="C16">
-        <v>-0.05059423099705304</v>
+        <v>0.04594082871323483</v>
       </c>
       <c r="D16">
-        <v>-0.004980183747730043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02344788853044495</v>
+      </c>
+      <c r="E16">
+        <v>0.03811423765110065</v>
+      </c>
+      <c r="F16">
+        <v>0.06261124042369413</v>
+      </c>
+      <c r="G16">
+        <v>-0.0386762798568003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02072378835990947</v>
+        <v>0.01550684914709965</v>
       </c>
       <c r="C19">
-        <v>-0.065746434023807</v>
+        <v>0.04710213701211476</v>
       </c>
       <c r="D19">
-        <v>-0.09168316536282109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08899486043260088</v>
+      </c>
+      <c r="E19">
+        <v>0.1101619415198516</v>
+      </c>
+      <c r="F19">
+        <v>0.07862821019625235</v>
+      </c>
+      <c r="G19">
+        <v>-0.0239586562224563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01559358809971188</v>
+        <v>0.0124270983546002</v>
       </c>
       <c r="C20">
-        <v>-0.04939916308856884</v>
+        <v>0.03958688854917986</v>
       </c>
       <c r="D20">
-        <v>-0.009522538993398364</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03063100354836469</v>
+      </c>
+      <c r="E20">
+        <v>0.07542226187907702</v>
+      </c>
+      <c r="F20">
+        <v>0.06862696085164631</v>
+      </c>
+      <c r="G20">
+        <v>-0.05017484329497325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.008956602294629221</v>
+        <v>0.008224857803171193</v>
       </c>
       <c r="C21">
-        <v>-0.05188117773799008</v>
+        <v>0.04314954302792437</v>
       </c>
       <c r="D21">
-        <v>-0.03684000758745571</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.05741101987041559</v>
+      </c>
+      <c r="E21">
+        <v>0.1152749099327756</v>
+      </c>
+      <c r="F21">
+        <v>0.1096793623249084</v>
+      </c>
+      <c r="G21">
+        <v>-0.07714751524705123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.000805820996120301</v>
+        <v>0.002372912420120345</v>
       </c>
       <c r="C22">
-        <v>-0.0008765646151601399</v>
+        <v>0.02632003973698549</v>
       </c>
       <c r="D22">
-        <v>-0.00203123039819329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.04198336538473214</v>
+      </c>
+      <c r="E22">
+        <v>0.03968211117054893</v>
+      </c>
+      <c r="F22">
+        <v>-2.065009589863811e-05</v>
+      </c>
+      <c r="G22">
+        <v>-0.05258150861799015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.0008114700304314048</v>
+        <v>0.002455242403010459</v>
       </c>
       <c r="C23">
-        <v>-0.0008767253344386754</v>
+        <v>0.02645857559119261</v>
       </c>
       <c r="D23">
-        <v>-0.002037245922622922</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.04155943860334683</v>
+      </c>
+      <c r="E23">
+        <v>0.03993712758855252</v>
+      </c>
+      <c r="F23">
+        <v>-0.0002972385321411589</v>
+      </c>
+      <c r="G23">
+        <v>-0.05265167350711041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03418097589449866</v>
+        <v>0.03355287720412996</v>
       </c>
       <c r="C24">
-        <v>-0.05179584233514234</v>
+        <v>0.05321845642975291</v>
       </c>
       <c r="D24">
-        <v>-0.005414090713592869</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02349883582717294</v>
+      </c>
+      <c r="E24">
+        <v>0.03887954350544878</v>
+      </c>
+      <c r="F24">
+        <v>0.065936935780935</v>
+      </c>
+      <c r="G24">
+        <v>-0.04937374100580808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04718553088166978</v>
+        <v>0.04269699672527971</v>
       </c>
       <c r="C25">
-        <v>-0.06353973127821859</v>
+        <v>0.05764848608356191</v>
       </c>
       <c r="D25">
-        <v>0.004638056677611317</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02289005589585629</v>
+      </c>
+      <c r="E25">
+        <v>0.02905645062037247</v>
+      </c>
+      <c r="F25">
+        <v>0.06058281834185278</v>
+      </c>
+      <c r="G25">
+        <v>-0.06504207174369978</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01506727848583496</v>
+        <v>0.01416003131393462</v>
       </c>
       <c r="C26">
-        <v>-0.01931640226132313</v>
+        <v>0.01825303760856291</v>
       </c>
       <c r="D26">
-        <v>-0.001211936813849483</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0221474014926215</v>
+      </c>
+      <c r="E26">
+        <v>0.04842616292105827</v>
+      </c>
+      <c r="F26">
+        <v>0.06869620648814327</v>
+      </c>
+      <c r="G26">
+        <v>-0.0272770793099417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09693121543165131</v>
+        <v>0.1405241089132084</v>
       </c>
       <c r="C28">
-        <v>0.2404844546785679</v>
+        <v>-0.2478241810677791</v>
       </c>
       <c r="D28">
-        <v>0.004295835638570686</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.02693806886782934</v>
+      </c>
+      <c r="E28">
+        <v>0.05745303063654327</v>
+      </c>
+      <c r="F28">
+        <v>0.04108672161232882</v>
+      </c>
+      <c r="G28">
+        <v>-0.04609260419419191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.005931751848721426</v>
+        <v>0.004393682862870584</v>
       </c>
       <c r="C29">
-        <v>-0.03482592964629255</v>
+        <v>0.03052408828753944</v>
       </c>
       <c r="D29">
-        <v>0.01736372087707961</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01599462512029311</v>
+      </c>
+      <c r="E29">
+        <v>0.04641992070257549</v>
+      </c>
+      <c r="F29">
+        <v>0.08171143788685237</v>
+      </c>
+      <c r="G29">
+        <v>-0.06316164858417778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04377926023677504</v>
+        <v>0.03957856477361758</v>
       </c>
       <c r="C30">
-        <v>-0.05582054596531356</v>
+        <v>0.05805740815909938</v>
       </c>
       <c r="D30">
-        <v>-0.06607551029153151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09685570162899725</v>
+      </c>
+      <c r="E30">
+        <v>0.0754670078579357</v>
+      </c>
+      <c r="F30">
+        <v>0.08560648895366732</v>
+      </c>
+      <c r="G30">
+        <v>-0.03957073531412688</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05725841589159172</v>
+        <v>0.0563370099323276</v>
       </c>
       <c r="C31">
-        <v>-0.04642827465781926</v>
+        <v>0.06198915364296776</v>
       </c>
       <c r="D31">
-        <v>0.03066252357696661</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.01570606002583942</v>
+      </c>
+      <c r="E31">
+        <v>0.0649724049452305</v>
+      </c>
+      <c r="F31">
+        <v>0.04569663186879573</v>
+      </c>
+      <c r="G31">
+        <v>-0.07846353327398804</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.000769443803063492</v>
+        <v>0.005086080430319492</v>
       </c>
       <c r="C32">
-        <v>-0.04083060419298597</v>
+        <v>0.03354130941496495</v>
       </c>
       <c r="D32">
-        <v>-0.04698335457842712</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05271338942111999</v>
+      </c>
+      <c r="E32">
+        <v>0.05704008944600822</v>
+      </c>
+      <c r="F32">
+        <v>0.0713200108495386</v>
+      </c>
+      <c r="G32">
+        <v>-0.03295232213236255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.0287768150250928</v>
+        <v>0.02451883895222346</v>
       </c>
       <c r="C33">
-        <v>-0.06460023726359973</v>
+        <v>0.05585549565997439</v>
       </c>
       <c r="D33">
-        <v>-0.03959212041545524</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06985781558170846</v>
+      </c>
+      <c r="E33">
+        <v>0.08807530631653279</v>
+      </c>
+      <c r="F33">
+        <v>0.09630635048775263</v>
+      </c>
+      <c r="G33">
+        <v>-0.07699056588295748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04411540070940864</v>
+        <v>0.0397014708800994</v>
       </c>
       <c r="C34">
-        <v>-0.06822453446004256</v>
+        <v>0.06566440669132192</v>
       </c>
       <c r="D34">
-        <v>-0.0108190352249045</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03610608885690951</v>
+      </c>
+      <c r="E34">
+        <v>0.01144180980319932</v>
+      </c>
+      <c r="F34">
+        <v>0.06797424557552934</v>
+      </c>
+      <c r="G34">
+        <v>-0.0507999736834431</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01587804636259203</v>
+        <v>0.01380058538569878</v>
       </c>
       <c r="C36">
-        <v>-0.01794024492256264</v>
+        <v>0.01407290719064201</v>
       </c>
       <c r="D36">
-        <v>0.005285317678223165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02135629675865417</v>
+      </c>
+      <c r="E36">
+        <v>0.05617376445698959</v>
+      </c>
+      <c r="F36">
+        <v>0.06400391516354602</v>
+      </c>
+      <c r="G36">
+        <v>-0.04825526422249243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02918952355223141</v>
+        <v>0.02279556347876794</v>
       </c>
       <c r="C38">
-        <v>-0.03028974502694536</v>
+        <v>0.02363428292912725</v>
       </c>
       <c r="D38">
-        <v>0.01509187024318873</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.018550310617499</v>
+      </c>
+      <c r="E38">
+        <v>0.04779849957217308</v>
+      </c>
+      <c r="F38">
+        <v>0.05155754721349946</v>
+      </c>
+      <c r="G38">
+        <v>-0.03275149879220726</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04491003931687133</v>
+        <v>0.03870010941578335</v>
       </c>
       <c r="C39">
-        <v>-0.06692410183763189</v>
+        <v>0.06517047384631752</v>
       </c>
       <c r="D39">
-        <v>-0.01325820895977816</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04756269603265836</v>
+      </c>
+      <c r="E39">
+        <v>0.04450751330698383</v>
+      </c>
+      <c r="F39">
+        <v>0.08591267919134485</v>
+      </c>
+      <c r="G39">
+        <v>-0.03784071616490104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0124392438595558</v>
+        <v>0.01283237916928997</v>
       </c>
       <c r="C40">
-        <v>-0.05201042977394586</v>
+        <v>0.03783528724403366</v>
       </c>
       <c r="D40">
-        <v>-0.01573309608405836</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02782633730020371</v>
+      </c>
+      <c r="E40">
+        <v>0.08139408292587634</v>
+      </c>
+      <c r="F40">
+        <v>0.05707385832270245</v>
+      </c>
+      <c r="G40">
+        <v>-0.08784982287440504</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0217725128065226</v>
+        <v>0.01905409965596492</v>
       </c>
       <c r="C41">
-        <v>-0.01537472388305599</v>
+        <v>0.011049409111469</v>
       </c>
       <c r="D41">
-        <v>-0.002041760296458902</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01460948816383987</v>
+      </c>
+      <c r="E41">
+        <v>0.05730951993676409</v>
+      </c>
+      <c r="F41">
+        <v>0.05883182183790219</v>
+      </c>
+      <c r="G41">
+        <v>-0.04038747804688909</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03909804581061553</v>
+        <v>0.02901129122413057</v>
       </c>
       <c r="C43">
-        <v>-0.03631494053459781</v>
+        <v>0.02569134689692427</v>
       </c>
       <c r="D43">
-        <v>-0.02842228094733675</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.04127406775452853</v>
+      </c>
+      <c r="E43">
+        <v>0.07277549041525919</v>
+      </c>
+      <c r="F43">
+        <v>0.06024192502573972</v>
+      </c>
+      <c r="G43">
+        <v>-0.06500794266023906</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01197410136059003</v>
+        <v>0.01342500953698446</v>
       </c>
       <c r="C44">
-        <v>-0.06871380746051445</v>
+        <v>0.04920114630046941</v>
       </c>
       <c r="D44">
-        <v>-0.007889587586408606</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03134756850325726</v>
+      </c>
+      <c r="E44">
+        <v>0.08635758646913551</v>
+      </c>
+      <c r="F44">
+        <v>0.06966254700002032</v>
+      </c>
+      <c r="G44">
+        <v>-0.03016960205920293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.007271031813174542</v>
+        <v>0.008005497450506979</v>
       </c>
       <c r="C46">
-        <v>-0.03042793385779096</v>
+        <v>0.03008495544213014</v>
       </c>
       <c r="D46">
-        <v>0.01930128449021614</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.009232180444931116</v>
+      </c>
+      <c r="E46">
+        <v>0.05460877103882019</v>
+      </c>
+      <c r="F46">
+        <v>0.09624499575202194</v>
+      </c>
+      <c r="G46">
+        <v>-0.06083733033194547</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08336912400037619</v>
+        <v>0.08758701808109901</v>
       </c>
       <c r="C47">
-        <v>-0.07297700753813828</v>
+        <v>0.08267971386665841</v>
       </c>
       <c r="D47">
-        <v>0.02704298649462509</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0221814160854295</v>
+      </c>
+      <c r="E47">
+        <v>0.06708260897687689</v>
+      </c>
+      <c r="F47">
+        <v>0.04350139366238017</v>
+      </c>
+      <c r="G47">
+        <v>-0.07711871177793421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0181919542632175</v>
+        <v>0.01617605847275776</v>
       </c>
       <c r="C48">
-        <v>-0.01658143273069822</v>
+        <v>0.01709737763473143</v>
       </c>
       <c r="D48">
-        <v>0.01789068001602204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.009359923187694469</v>
+      </c>
+      <c r="E48">
+        <v>0.0662337181032339</v>
+      </c>
+      <c r="F48">
+        <v>0.08149657514446794</v>
+      </c>
+      <c r="G48">
+        <v>-0.05611374473298377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07991432146233649</v>
+        <v>0.06990407084997728</v>
       </c>
       <c r="C50">
-        <v>-0.08386495947548639</v>
+        <v>0.07679432008238991</v>
       </c>
       <c r="D50">
-        <v>0.02844143418250468</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.007971378579112351</v>
+      </c>
+      <c r="E50">
+        <v>0.07394703897880006</v>
+      </c>
+      <c r="F50">
+        <v>0.02161906571494122</v>
+      </c>
+      <c r="G50">
+        <v>-0.09354797668338841</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01408085949400978</v>
+        <v>0.008985261863832077</v>
       </c>
       <c r="C51">
-        <v>-0.05074021301455714</v>
+        <v>0.0326077279917838</v>
       </c>
       <c r="D51">
-        <v>-0.02985863995250843</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.05224588305424097</v>
+      </c>
+      <c r="E51">
+        <v>0.04736115576725353</v>
+      </c>
+      <c r="F51">
+        <v>0.08161434172270651</v>
+      </c>
+      <c r="G51">
+        <v>-0.03466485318914359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08244600742767604</v>
+        <v>0.09453743289948391</v>
       </c>
       <c r="C53">
-        <v>-0.07851001702200368</v>
+        <v>0.08797603104092341</v>
       </c>
       <c r="D53">
-        <v>0.05058786468891156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05495093548301129</v>
+      </c>
+      <c r="E53">
+        <v>0.06113103219372708</v>
+      </c>
+      <c r="F53">
+        <v>0.04066552858667119</v>
+      </c>
+      <c r="G53">
+        <v>-0.0785189776104496</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03118168044259648</v>
+        <v>0.02698725645424973</v>
       </c>
       <c r="C54">
-        <v>-0.03844605475048489</v>
+        <v>0.03286036846068484</v>
       </c>
       <c r="D54">
-        <v>0.002684865563406032</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02410843317012143</v>
+      </c>
+      <c r="E54">
+        <v>0.05433416043312907</v>
+      </c>
+      <c r="F54">
+        <v>0.08583065241190181</v>
+      </c>
+      <c r="G54">
+        <v>-0.06104208363942195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07549275744153676</v>
+        <v>0.08575752026703412</v>
       </c>
       <c r="C55">
-        <v>-0.05935181828926758</v>
+        <v>0.07106700482171252</v>
       </c>
       <c r="D55">
-        <v>0.05444036980047208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05736517041778542</v>
+      </c>
+      <c r="E55">
+        <v>0.04392030055940851</v>
+      </c>
+      <c r="F55">
+        <v>0.02252511872098226</v>
+      </c>
+      <c r="G55">
+        <v>-0.05937211983676492</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1467917638047358</v>
+        <v>0.1485123989072415</v>
       </c>
       <c r="C56">
-        <v>-0.09464055295268746</v>
+        <v>0.1077826305571281</v>
       </c>
       <c r="D56">
-        <v>0.04723991519065401</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05479846152577911</v>
+      </c>
+      <c r="E56">
+        <v>0.04195226710595238</v>
+      </c>
+      <c r="F56">
+        <v>-0.002625303955312883</v>
+      </c>
+      <c r="G56">
+        <v>-0.04211702731508198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04574391174533766</v>
+        <v>0.02765360226265412</v>
       </c>
       <c r="C58">
-        <v>-0.02869087759962605</v>
+        <v>0.02596560712779202</v>
       </c>
       <c r="D58">
-        <v>-0.7377316629820108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3825218082265079</v>
+      </c>
+      <c r="E58">
+        <v>0.6638348197556131</v>
+      </c>
+      <c r="F58">
+        <v>-0.481645553553167</v>
+      </c>
+      <c r="G58">
+        <v>0.3177796639328422</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1357570530534846</v>
+        <v>0.1476629365311934</v>
       </c>
       <c r="C59">
-        <v>0.195411551001551</v>
+        <v>-0.1860106151466203</v>
       </c>
       <c r="D59">
-        <v>-0.02547720983636992</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02622807117351651</v>
+      </c>
+      <c r="E59">
+        <v>0.02820486689976917</v>
+      </c>
+      <c r="F59">
+        <v>0.02877490581578875</v>
+      </c>
+      <c r="G59">
+        <v>0.020185566814859</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3077563488874074</v>
+        <v>0.2787475589860184</v>
       </c>
       <c r="C60">
-        <v>-0.1089733699233567</v>
+        <v>0.1082963937452807</v>
       </c>
       <c r="D60">
-        <v>-0.1449752735317133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2617966157322523</v>
+      </c>
+      <c r="E60">
+        <v>-0.2414316502365584</v>
+      </c>
+      <c r="F60">
+        <v>-0.07603517462164062</v>
+      </c>
+      <c r="G60">
+        <v>-0.03827709831233517</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04238065551942017</v>
+        <v>0.03980761869066983</v>
       </c>
       <c r="C61">
-        <v>-0.06525200268797268</v>
+        <v>0.06146845954197203</v>
       </c>
       <c r="D61">
-        <v>-0.009912185391886359</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03927593449246152</v>
+      </c>
+      <c r="E61">
+        <v>0.04768657673300156</v>
+      </c>
+      <c r="F61">
+        <v>0.06849856243568142</v>
+      </c>
+      <c r="G61">
+        <v>-0.05643790828320044</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01524879016408515</v>
+        <v>0.01440274806009204</v>
       </c>
       <c r="C63">
-        <v>-0.03549682207820058</v>
+        <v>0.0322585350485493</v>
       </c>
       <c r="D63">
-        <v>0.01453019947012893</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01497290643683594</v>
+      </c>
+      <c r="E63">
+        <v>0.05894221950302024</v>
+      </c>
+      <c r="F63">
+        <v>0.05371154214394128</v>
+      </c>
+      <c r="G63">
+        <v>-0.06509377598672021</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04896447398460122</v>
+        <v>0.05461413656938622</v>
       </c>
       <c r="C64">
-        <v>-0.04860177553508459</v>
+        <v>0.0582976142284465</v>
       </c>
       <c r="D64">
-        <v>0.002239302488455699</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.003352511911123981</v>
+      </c>
+      <c r="E64">
+        <v>0.03465745170333364</v>
+      </c>
+      <c r="F64">
+        <v>0.07244140742626143</v>
+      </c>
+      <c r="G64">
+        <v>-0.04918778941858932</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08227649558791235</v>
+        <v>0.06651534398598097</v>
       </c>
       <c r="C65">
-        <v>-0.0296457405281401</v>
+        <v>0.02871028781056562</v>
       </c>
       <c r="D65">
-        <v>-0.05924591117493303</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0858947451895653</v>
+      </c>
+      <c r="E65">
+        <v>0.05405698285103137</v>
+      </c>
+      <c r="F65">
+        <v>0.01051610771799814</v>
+      </c>
+      <c r="G65">
+        <v>-0.02018621858564353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06000216374682864</v>
+        <v>0.05003548855326075</v>
       </c>
       <c r="C66">
-        <v>-0.09229472244239884</v>
+        <v>0.08385142352736459</v>
       </c>
       <c r="D66">
-        <v>-0.03248977754411448</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07205292321347329</v>
+      </c>
+      <c r="E66">
+        <v>0.05282118602576786</v>
+      </c>
+      <c r="F66">
+        <v>0.08258783934265541</v>
+      </c>
+      <c r="G66">
+        <v>-0.05509274290349763</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05097056525390683</v>
+        <v>0.04454407667341791</v>
       </c>
       <c r="C67">
-        <v>-0.03229688952382208</v>
+        <v>0.029305455500056</v>
       </c>
       <c r="D67">
-        <v>0.02150225448689658</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.003487192398802379</v>
+      </c>
+      <c r="E67">
+        <v>0.02547757003115784</v>
+      </c>
+      <c r="F67">
+        <v>0.037483269911688</v>
+      </c>
+      <c r="G67">
+        <v>-0.02873709920416819</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1341366321103924</v>
+        <v>0.1557199540020887</v>
       </c>
       <c r="C68">
-        <v>0.2769901967092019</v>
+        <v>-0.2419910703297175</v>
       </c>
       <c r="D68">
-        <v>0.003971702954012792</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01470158522470802</v>
+      </c>
+      <c r="E68">
+        <v>0.03963386840438388</v>
+      </c>
+      <c r="F68">
+        <v>0.01140510459732529</v>
+      </c>
+      <c r="G68">
+        <v>-0.02948723588576312</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09025938133685325</v>
+        <v>0.08622226419868557</v>
       </c>
       <c r="C69">
-        <v>-0.07370688659740085</v>
+        <v>0.09045139084146009</v>
       </c>
       <c r="D69">
-        <v>0.0427459232621954</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01300042894410817</v>
+      </c>
+      <c r="E69">
+        <v>0.05236377319137689</v>
+      </c>
+      <c r="F69">
+        <v>0.07089674274542378</v>
+      </c>
+      <c r="G69">
+        <v>-0.06878949550924861</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1225301932480788</v>
+        <v>0.1476794775062263</v>
       </c>
       <c r="C71">
-        <v>0.2490459000689393</v>
+        <v>-0.2367993865264462</v>
       </c>
       <c r="D71">
-        <v>-0.01946784009465766</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.001158216749498871</v>
+      </c>
+      <c r="E71">
+        <v>0.06091071042647307</v>
+      </c>
+      <c r="F71">
+        <v>0.02968100099288197</v>
+      </c>
+      <c r="G71">
+        <v>-0.05834045779903045</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09060908363522682</v>
+        <v>0.09899331451132092</v>
       </c>
       <c r="C72">
-        <v>-0.05916829803110035</v>
+        <v>0.059832460534189</v>
       </c>
       <c r="D72">
-        <v>-0.00215292848762704</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02609777978187989</v>
+      </c>
+      <c r="E72">
+        <v>0.02539218314708014</v>
+      </c>
+      <c r="F72">
+        <v>0.04788892538920364</v>
+      </c>
+      <c r="G72">
+        <v>-0.06378240884458897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4035639290555812</v>
+        <v>0.3413906114667409</v>
       </c>
       <c r="C73">
-        <v>-0.05516102336202258</v>
+        <v>0.07469047121390138</v>
       </c>
       <c r="D73">
-        <v>-0.3560798024202185</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.5184673466325757</v>
+      </c>
+      <c r="E73">
+        <v>-0.4413233439562796</v>
+      </c>
+      <c r="F73">
+        <v>-0.230724851799595</v>
+      </c>
+      <c r="G73">
+        <v>-0.03006651103696055</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1036535820369353</v>
+        <v>0.1089162690663698</v>
       </c>
       <c r="C74">
-        <v>-0.09644793399507341</v>
+        <v>0.09637363123427781</v>
       </c>
       <c r="D74">
-        <v>0.02626416067541078</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04353861106722665</v>
+      </c>
+      <c r="E74">
+        <v>0.06246789143420863</v>
+      </c>
+      <c r="F74">
+        <v>-0.001827506442075024</v>
+      </c>
+      <c r="G74">
+        <v>-0.06727139825298219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2525342647622554</v>
+        <v>0.2566986294841294</v>
       </c>
       <c r="C75">
-        <v>-0.1049960228321956</v>
+        <v>0.1331265203818096</v>
       </c>
       <c r="D75">
-        <v>0.1133015387099134</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1494454641304378</v>
+      </c>
+      <c r="E75">
+        <v>0.04507011146808004</v>
+      </c>
+      <c r="F75">
+        <v>-0.04509192990186081</v>
+      </c>
+      <c r="G75">
+        <v>-0.01181008843693455</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1122424201286372</v>
+        <v>0.1264171419716215</v>
       </c>
       <c r="C76">
-        <v>-0.08378583538929564</v>
+        <v>0.09598562863812436</v>
       </c>
       <c r="D76">
-        <v>0.05500314473404944</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07371628121297924</v>
+      </c>
+      <c r="E76">
+        <v>0.06756292827362087</v>
+      </c>
+      <c r="F76">
+        <v>0.02050980191566669</v>
+      </c>
+      <c r="G76">
+        <v>-0.05569445842394134</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07656021336663063</v>
+        <v>0.06228782769262996</v>
       </c>
       <c r="C77">
-        <v>-0.05650818440721245</v>
+        <v>0.06472742110924778</v>
       </c>
       <c r="D77">
-        <v>-0.0490444049196231</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05154190456227375</v>
+      </c>
+      <c r="E77">
+        <v>0.09782975064141938</v>
+      </c>
+      <c r="F77">
+        <v>0.1578864886233023</v>
+      </c>
+      <c r="G77">
+        <v>0.1071071738976652</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04769470022293962</v>
+        <v>0.04442613906695474</v>
       </c>
       <c r="C78">
-        <v>-0.04897806113465949</v>
+        <v>0.05663188190111038</v>
       </c>
       <c r="D78">
-        <v>-0.01667981396233264</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05660842115023714</v>
+      </c>
+      <c r="E78">
+        <v>0.05446348215745866</v>
+      </c>
+      <c r="F78">
+        <v>0.07641894664168664</v>
+      </c>
+      <c r="G78">
+        <v>-0.04819065571769979</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02928972417330919</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04587879554389503</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07426403375205244</v>
+      </c>
+      <c r="E79">
+        <v>0.06005798065748282</v>
+      </c>
+      <c r="F79">
+        <v>-0.01082315408273865</v>
+      </c>
+      <c r="G79">
+        <v>-0.06121606000828499</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03815951131729018</v>
+        <v>0.02949365220073376</v>
       </c>
       <c r="C80">
-        <v>-0.05154978763575634</v>
+        <v>0.05171955687119011</v>
       </c>
       <c r="D80">
-        <v>-0.02364187769914504</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03723782885526683</v>
+      </c>
+      <c r="E80">
+        <v>0.01951454079502477</v>
+      </c>
+      <c r="F80">
+        <v>0.04651850767516479</v>
+      </c>
+      <c r="G80">
+        <v>0.02334960272079588</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1380343521903482</v>
+        <v>0.1379977186631023</v>
       </c>
       <c r="C81">
-        <v>-0.07769643545341573</v>
+        <v>0.09547149742140372</v>
       </c>
       <c r="D81">
-        <v>0.0787276010927927</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1187608743907843</v>
+      </c>
+      <c r="E81">
+        <v>0.06850738861080902</v>
+      </c>
+      <c r="F81">
+        <v>-0.02731819564086808</v>
+      </c>
+      <c r="G81">
+        <v>-0.02222117380601815</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1733240676048258</v>
+        <v>0.2107860604384078</v>
       </c>
       <c r="C82">
-        <v>-0.09482935538704025</v>
+        <v>0.1586173738201985</v>
       </c>
       <c r="D82">
-        <v>0.1764930806465263</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2462984627607069</v>
+      </c>
+      <c r="E82">
+        <v>-0.01994529614157777</v>
+      </c>
+      <c r="F82">
+        <v>0.05375334275685813</v>
+      </c>
+      <c r="G82">
+        <v>-0.04430289297067669</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03916049876332841</v>
+        <v>0.0268196244710728</v>
       </c>
       <c r="C83">
-        <v>-0.0299606661353167</v>
+        <v>0.04285325607087875</v>
       </c>
       <c r="D83">
-        <v>-0.02841689115002613</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02829480957241689</v>
+      </c>
+      <c r="E83">
+        <v>0.02401186073272574</v>
+      </c>
+      <c r="F83">
+        <v>0.0458620978368656</v>
+      </c>
+      <c r="G83">
+        <v>0.002222972561534669</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001049355235270554</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.000837653309104321</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.001117904787557435</v>
+      </c>
+      <c r="E84">
+        <v>0.0007503492576037216</v>
+      </c>
+      <c r="F84">
+        <v>0.001042643436334977</v>
+      </c>
+      <c r="G84">
+        <v>-0.0005919160772641217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2199427515953969</v>
+        <v>0.2027592048981431</v>
       </c>
       <c r="C85">
-        <v>-0.1009465057825577</v>
+        <v>0.1164742195813894</v>
       </c>
       <c r="D85">
-        <v>0.1466334456611017</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1159595312623964</v>
+      </c>
+      <c r="E85">
+        <v>-0.02516317340368797</v>
+      </c>
+      <c r="F85">
+        <v>-0.09251408768574888</v>
+      </c>
+      <c r="G85">
+        <v>-0.05923393624456949</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.005692013541544773</v>
+        <v>0.008429994668866216</v>
       </c>
       <c r="C86">
-        <v>-0.02849624966547488</v>
+        <v>0.02054691741983352</v>
       </c>
       <c r="D86">
-        <v>-0.0441283017914461</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05711337612411024</v>
+      </c>
+      <c r="E86">
+        <v>0.07246437424924369</v>
+      </c>
+      <c r="F86">
+        <v>0.1150614293170025</v>
+      </c>
+      <c r="G86">
+        <v>-0.05433161187779444</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02370766288357003</v>
+        <v>0.02395123903847444</v>
       </c>
       <c r="C87">
-        <v>-0.007316596794074895</v>
+        <v>0.01350465674880777</v>
       </c>
       <c r="D87">
-        <v>-0.08644577278628383</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07864206416496769</v>
+      </c>
+      <c r="E87">
+        <v>0.1251629984023098</v>
+      </c>
+      <c r="F87">
+        <v>0.08346944006530488</v>
+      </c>
+      <c r="G87">
+        <v>-1.80486547773998e-05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1035754234315833</v>
+        <v>0.09042009926944079</v>
       </c>
       <c r="C88">
-        <v>-0.07580497342961577</v>
+        <v>0.06432946496380822</v>
       </c>
       <c r="D88">
-        <v>0.02446115398326221</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.004015558448601632</v>
+      </c>
+      <c r="E88">
+        <v>0.04905714966477416</v>
+      </c>
+      <c r="F88">
+        <v>0.07720241801083845</v>
+      </c>
+      <c r="G88">
+        <v>-0.02140080445829822</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1923909581474878</v>
+        <v>0.2253615100829284</v>
       </c>
       <c r="C89">
-        <v>0.3721366938803101</v>
+        <v>-0.3754568780269795</v>
       </c>
       <c r="D89">
-        <v>0.02864728883415468</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02550047290221383</v>
+      </c>
+      <c r="E89">
+        <v>0.06538327128876578</v>
+      </c>
+      <c r="F89">
+        <v>0.09178114935732538</v>
+      </c>
+      <c r="G89">
+        <v>0.02509732836601132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1843251690605864</v>
+        <v>0.2045886727459421</v>
       </c>
       <c r="C90">
-        <v>0.3314111207706606</v>
+        <v>-0.3080911462645508</v>
       </c>
       <c r="D90">
-        <v>0.03012097403608167</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.02626306791876341</v>
+      </c>
+      <c r="E90">
+        <v>0.06632382416658002</v>
+      </c>
+      <c r="F90">
+        <v>0.03952486211760336</v>
+      </c>
+      <c r="G90">
+        <v>-0.004686995005085402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1881364629586142</v>
+        <v>0.1854599975297772</v>
       </c>
       <c r="C91">
-        <v>-0.1283488116938145</v>
+        <v>0.1452043937762245</v>
       </c>
       <c r="D91">
-        <v>0.1050022048831984</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1264197702802121</v>
+      </c>
+      <c r="E91">
+        <v>0.04745295515596929</v>
+      </c>
+      <c r="F91">
+        <v>-0.01205710214177724</v>
+      </c>
+      <c r="G91">
+        <v>-0.02563641739585364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1676733293960608</v>
+        <v>0.1856898100708426</v>
       </c>
       <c r="C92">
-        <v>0.2803482194842522</v>
+        <v>-0.28675386371092</v>
       </c>
       <c r="D92">
-        <v>0.0234450038593584</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02907485905464696</v>
+      </c>
+      <c r="E92">
+        <v>0.07010580120599931</v>
+      </c>
+      <c r="F92">
+        <v>0.07488177465445302</v>
+      </c>
+      <c r="G92">
+        <v>-0.01628936886599333</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2059840403010783</v>
+        <v>0.2273308208292563</v>
       </c>
       <c r="C93">
-        <v>0.3350150728989782</v>
+        <v>-0.3164599929429981</v>
       </c>
       <c r="D93">
-        <v>0.02994428128144442</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02205001722703177</v>
+      </c>
+      <c r="E93">
+        <v>0.04122251308348882</v>
+      </c>
+      <c r="F93">
+        <v>0.01940316798675166</v>
+      </c>
+      <c r="G93">
+        <v>-0.03724797273931015</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3294752538670555</v>
+        <v>0.3340604600515655</v>
       </c>
       <c r="C94">
-        <v>-0.1593545919313472</v>
+        <v>0.1944873385363429</v>
       </c>
       <c r="D94">
-        <v>0.3387730990328002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4309268116194375</v>
+      </c>
+      <c r="E94">
+        <v>0.007129700020161905</v>
+      </c>
+      <c r="F94">
+        <v>-0.2468304688048229</v>
+      </c>
+      <c r="G94">
+        <v>0.4230994520710774</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1124948532967271</v>
+        <v>0.08361657877811317</v>
       </c>
       <c r="C95">
-        <v>-0.07290572133249244</v>
+        <v>0.06540816833587322</v>
       </c>
       <c r="D95">
-        <v>-0.1344115635301298</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1816309381878397</v>
+      </c>
+      <c r="E95">
+        <v>-0.09595300027698624</v>
+      </c>
+      <c r="F95">
+        <v>0.568427750747839</v>
+      </c>
+      <c r="G95">
+        <v>0.7072511430264927</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1959275454219397</v>
+        <v>0.1874948602189166</v>
       </c>
       <c r="C98">
-        <v>-0.02266400832402131</v>
+        <v>0.04724086274754145</v>
       </c>
       <c r="D98">
-        <v>-0.1229505944865731</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1982074924303509</v>
+      </c>
+      <c r="E98">
+        <v>-0.1338354837469617</v>
+      </c>
+      <c r="F98">
+        <v>-0.06208124764325015</v>
+      </c>
+      <c r="G98">
+        <v>-0.0851107765277441</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.005712469776551198</v>
+        <v>0.004372096769687114</v>
       </c>
       <c r="C101">
-        <v>-0.03483467025660687</v>
+        <v>0.03017010615248864</v>
       </c>
       <c r="D101">
-        <v>0.01706725795414211</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01595604563108325</v>
+      </c>
+      <c r="E101">
+        <v>0.04711087438757879</v>
+      </c>
+      <c r="F101">
+        <v>0.0824324045663347</v>
+      </c>
+      <c r="G101">
+        <v>-0.06294816959694866</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1242686374424622</v>
+        <v>0.1255076460597504</v>
       </c>
       <c r="C102">
-        <v>-0.06991728396280485</v>
+        <v>0.1016337352074644</v>
       </c>
       <c r="D102">
-        <v>0.04166372879652343</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05300335455682235</v>
+      </c>
+      <c r="E102">
+        <v>-0.01190935301023978</v>
+      </c>
+      <c r="F102">
+        <v>0.01735255660714084</v>
+      </c>
+      <c r="G102">
+        <v>-0.0006052715152401603</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
